--- a/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-12.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013601#1252#1-F-ingresos_causas_por_materia-2021-12.xlsx
@@ -103,34 +103,37 @@
     <t>Paternidad, Impugnacion Y Reconocimiento De</t>
   </si>
   <si>
+    <t>Cuidado Personal Del Niño, Modificacion</t>
+  </si>
+  <si>
     <t>Divorcio Por Culpa</t>
   </si>
   <si>
-    <t>Cuidado Personal Del Niño, Modificacion</t>
+    <t>Compensacion Economica</t>
   </si>
   <si>
     <t>Relacion Directa Y Regular, Otros</t>
   </si>
   <si>
-    <t>Compensacion Economica</t>
-  </si>
-  <si>
     <t>Autorizaciones</t>
   </si>
   <si>
+    <t>Otros Asuntos De Tramitacion Ordinaria</t>
+  </si>
+  <si>
+    <t>Adopcion</t>
+  </si>
+  <si>
     <t>Paternidad, Reconocimiento De</t>
   </si>
   <si>
+    <t>(R) Rectif. De Género Y Nombre, &gt; De 14 Y &lt; De 18 Años</t>
+  </si>
+  <si>
     <t>Alimentos Aumento</t>
   </si>
   <si>
-    <t>Otros Asuntos De Tramitacion Ordinaria</t>
-  </si>
-  <si>
-    <t>(R) Rectif. De Género Y Nombre, &gt; De 14 Y &lt; De 18 Años</t>
-  </si>
-  <si>
-    <t>Adopcion</t>
+    <t>Autorización Para Enajenar Bienes Raíces</t>
   </si>
   <si>
     <t>Alimentos Rebaja</t>
@@ -140,9 +143,6 @@
   </si>
   <si>
     <t>Relación Directa Y Regular Suspensión</t>
-  </si>
-  <si>
-    <t>Autorización Para Enajenar Bienes Raíces</t>
   </si>
   <si>
     <t>Infracción A La Ley Penal</t>
@@ -734,7 +734,7 @@
         <v>15</v>
       </c>
       <c r="B9">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
         <v>44</v>
@@ -812,7 +812,7 @@
         <v>18</v>
       </c>
       <c r="B12">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
         <v>44</v>
